--- a/medicine/Mort/Cimetière_de_Belleville/Cimetière_de_Belleville.xlsx
+++ b/medicine/Mort/Cimetière_de_Belleville/Cimetière_de_Belleville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Belleville</t>
+          <t>Cimetière_de_Belleville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Belleville est situé dans le quartier de quartier de Belleville à l'angle de la rue de Belleville et de la rue du Télégraphe dans le 20e arrondissement de Paris. Ce cimetière de 1,80 hectare de superficie accueille 3210 concessions.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Belleville</t>
+          <t>Cimetière_de_Belleville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est délimité par les rues de Belleville, du Télégraphe, et la villa des Hauts-de-Belleville. Le réservoir de Belleville, un réservoir d'eau annexe de la ville de Paris, est adossé à la partie sud du cimetière à l'endroit où s'élevait le bâtiment principal du domaine des Le Peletier de Saint-Fargeau. Le square Belleville - Télégraphe se trouve encastré dans le cimetière, dans l'angle des rues de Belleville et du Télégraphe.
 Le cimetière de Belleville est accessible par la ligne 11 du métro à la station Télégraphe.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Belleville</t>
+          <t>Cimetière_de_Belleville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement ce lieu faisait partie de la propriété de la famille Le Peletier de Saint-Fargeau qui possédait depuis 1695 un domaine d'une cinquantaine d'hectares sur la butte. Le lieu a été utilisé pour des expériences de télégraphe optique par Claude Chappe de 1790 à 1798, comme en témoigne la plaque à droite de l'entrée principale, car le cimetière se trouve au point le plus haut de l'Est de Paris à 128,508 m.
-Après différentes étapes de morcellement et de vente de la propriété, un cimetière est finalement inauguré en 1804[1] pour faire face à la saturation de ceux de l'ancienne église Saint-Jean-Baptiste de Belleville. Initialement cimetière communal du village de Belleville, le cimetière est rattaché à la ville de Paris lors de l'annexion du territoire de Belleville en 1860.
+Après différentes étapes de morcellement et de vente de la propriété, un cimetière est finalement inauguré en 1804 pour faire face à la saturation de ceux de l'ancienne église Saint-Jean-Baptiste de Belleville. Initialement cimetière communal du village de Belleville, le cimetière est rattaché à la ville de Paris lors de l'annexion du territoire de Belleville en 1860.
 			Entrée du cimetière.
 			Vue de la partie centrale.
 			Vue de la partie sud et du réservoir de Belleville.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Belleville</t>
+          <t>Cimetière_de_Belleville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Personnes célèbres inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les personnalités inhumées au cimetière de Belleville peuvent être citées[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les personnalités inhumées au cimetière de Belleville peuvent être citées :
 			Le mémorial aux otages tués durant la Commune de Paris.
 </t>
         </is>
